--- a/demo/demo_data.xlsx
+++ b/demo/demo_data.xlsx
@@ -16,7 +16,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="225">
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Емайл</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>111-11-11</t>
+  </si>
+  <si>
+    <t>client1@client1.ru</t>
+  </si>
   <si>
     <t>дата и время</t>
   </si>
@@ -49,30 +73,6 @@
   </si>
   <si>
     <t>категория</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Емайл</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>111-11-11</t>
-  </si>
-  <si>
-    <t>client1@client1.ru</t>
   </si>
   <si>
     <t>222-22-22</t>
@@ -192,6 +192,18 @@
     <t>client1.ru</t>
   </si>
   <si>
+    <t>запрос цены</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Мы бы хотели приобрести у вас шлифовальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
+  </si>
+  <si>
+    <t>message_id_1</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>RE: RE: цена на станцию выского давления</t>
   </si>
   <si>
@@ -207,88 +219,7 @@
     <t>message_id_12</t>
   </si>
   <si>
-    <t>client2.ru</t>
-  </si>
-  <si>
-    <t>client3.ru</t>
-  </si>
-  <si>
-    <t>client4.ru</t>
-  </si>
-  <si>
-    <t>Сергей, мы ждем ТКП.</t>
-  </si>
-  <si>
-    <t>message_id_22</t>
-  </si>
-  <si>
-    <t>client5.ru</t>
-  </si>
-  <si>
-    <t>2222222</t>
-  </si>
-  <si>
-    <t>client6.ru</t>
-  </si>
-  <si>
-    <t>Клиент просит прислать ТКП. Немного недоволен. Менеджер извиняется.</t>
-  </si>
-  <si>
-    <t>phone_id_21</t>
-  </si>
-  <si>
-    <t>client7.ru</t>
-  </si>
-  <si>
-    <t>client8.ru</t>
-  </si>
-  <si>
-    <t>запрос цены</t>
-  </si>
-  <si>
-    <t>client9.ru</t>
-  </si>
-  <si>
-    <t>Здравствуйте! Мы бы хотели приобрести у вас шлифовальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
-  </si>
-  <si>
-    <t>message_id_1</t>
-  </si>
-  <si>
-    <t>client10.ru</t>
-  </si>
-  <si>
-    <t>ТКП</t>
-  </si>
-  <si>
-    <t>Добрый вечер! ТКП в приложении.</t>
-  </si>
-  <si>
-    <t>message_id_23</t>
-  </si>
-  <si>
-    <t>check_phone</t>
-  </si>
-  <si>
-    <t>1111111</t>
-  </si>
-  <si>
-    <t>3333333</t>
-  </si>
-  <si>
-    <t>4444444</t>
-  </si>
-  <si>
-    <t>Клиент сообщает об ошибке в спецификации. Недоволен. Указывает на ошибки и задержки.</t>
-  </si>
-  <si>
-    <t>phone_id_22</t>
-  </si>
-  <si>
-    <t>5555555</t>
-  </si>
-  <si>
-    <t>6666666</t>
+    <t>conflict</t>
   </si>
   <si>
     <t>RE: запрос цены</t>
@@ -297,28 +228,13 @@
     <t>Добрый день! Все модели есть в наличии. Сроки поставки от 1 до 3 дней. Расходные материалы надо уточнять. Все позиции указаны в приложении, со сроками доставки. С уважением, Алексей.</t>
   </si>
   <si>
-    <t>7777777</t>
-  </si>
-  <si>
     <t>message_id_2</t>
   </si>
   <si>
-    <t>RE: ТКП</t>
+    <t>Сергей, мы ждем ТКП.</t>
   </si>
   <si>
-    <t>Исправленное ТКП в приложении.</t>
-  </si>
-  <si>
-    <t>8888888</t>
-  </si>
-  <si>
-    <t>message_id_24</t>
-  </si>
-  <si>
-    <t>9999999</t>
-  </si>
-  <si>
-    <t>1011010</t>
+    <t>message_id_22</t>
   </si>
   <si>
     <t>RE: RE: запрос цены</t>
@@ -330,13 +246,19 @@
     <t>message_id_3</t>
   </si>
   <si>
+    <t>2222222</t>
+  </si>
+  <si>
     <t>message_id_1 message_id_2</t>
   </si>
   <si>
-    <t>Клиент просит счет.</t>
+    <t>Клиент просит прислать ТКП. Немного недоволен. Менеджер извиняется.</t>
   </si>
   <si>
-    <t>phone_id_23</t>
+    <t>phone_id_21</t>
+  </si>
+  <si>
+    <t>client2.ru</t>
   </si>
   <si>
     <t>RE: RE: RE: запрос цены</t>
@@ -351,19 +273,103 @@
     <t>message_id_1 message_id_2 message_id_3</t>
   </si>
   <si>
+    <t>client3.ru</t>
+  </si>
+  <si>
+    <t>ТКП</t>
+  </si>
+  <si>
+    <t>Добрый вечер! ТКП в приложении.</t>
+  </si>
+  <si>
+    <t>message_id_23</t>
+  </si>
+  <si>
+    <t>client4.ru</t>
+  </si>
+  <si>
+    <t>7777777</t>
+  </si>
+  <si>
+    <t>client5.ru</t>
+  </si>
+  <si>
+    <t>Клиент сообщает об ошибке в спецификации. Недоволен. Указывает на ошибки и задержки.</t>
+  </si>
+  <si>
+    <t>phone_id_22</t>
+  </si>
+  <si>
+    <t>Разговор про наличие оборудования и цены.</t>
+  </si>
+  <si>
+    <t>client6.ru</t>
+  </si>
+  <si>
+    <t>phone_id_1</t>
+  </si>
+  <si>
+    <t>RE: ТКП</t>
+  </si>
+  <si>
+    <t>Исправленное ТКП в приложении.</t>
+  </si>
+  <si>
+    <t>client7.ru</t>
+  </si>
+  <si>
+    <t>message_id_24</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>client8.ru</t>
+  </si>
+  <si>
+    <t>Клиент просит счет.</t>
+  </si>
+  <si>
+    <t>phone_id_23</t>
+  </si>
+  <si>
+    <t>phone_id_12</t>
+  </si>
+  <si>
+    <t>client9.ru</t>
+  </si>
+  <si>
+    <t>client10.ru</t>
+  </si>
+  <si>
     <t>Счет</t>
   </si>
   <si>
     <t>message_id_25</t>
   </si>
   <si>
-    <t>Разговор про наличие оборудования и цены.</t>
+    <t>check_phone</t>
   </si>
   <si>
-    <t>phone_id_1</t>
+    <t>3333333</t>
   </si>
   <si>
-    <t>phone_id_12</t>
+    <t>4444444</t>
+  </si>
+  <si>
+    <t>5555555</t>
+  </si>
+  <si>
+    <t>6666666</t>
+  </si>
+  <si>
+    <t>8888888</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>1011010</t>
   </si>
   <si>
     <t>Здравствуйте! Мы бы хотели приобрести у вас полировальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
@@ -373,6 +379,9 @@
   </si>
   <si>
     <t>message_id_27</t>
+  </si>
+  <si>
+    <t>phone_id_13</t>
   </si>
   <si>
     <t>message_id_28</t>
@@ -387,9 +396,6 @@
     <t>message_id_26 message_id_27 message_id_28</t>
   </si>
   <si>
-    <t>phone_id_13</t>
-  </si>
-  <si>
     <t>Запрос на сервисное обслуживание оборудования. Согласованы работы и оплата.</t>
   </si>
   <si>
@@ -399,13 +405,13 @@
     <t>phone_id_25</t>
   </si>
   <si>
-    <t>phone_id_26</t>
-  </si>
-  <si>
     <t>Разговор про сервисное обслуживание оборудования и цены. Перенаправлен в отдел сервиса.</t>
   </si>
   <si>
     <t>phone_id_14</t>
+  </si>
+  <si>
+    <t>phone_id_26</t>
   </si>
   <si>
     <t>phone_id_15</t>
@@ -764,35 +770,35 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -855,37 +861,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -898,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -911,7 +917,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -924,7 +930,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -937,7 +943,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -963,7 +969,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -976,7 +982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -989,7 +995,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -1089,7 +1095,7 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="2"/>
@@ -1100,8 +1106,8 @@
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>63</v>
+      <c r="B18" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1111,8 +1117,8 @@
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>64</v>
+      <c r="B19" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1122,8 +1128,8 @@
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>65</v>
+      <c r="B20" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1133,8 +1139,8 @@
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>68</v>
+      <c r="B21" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1144,8 +1150,8 @@
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>70</v>
+      <c r="B22" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1155,8 +1161,8 @@
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>73</v>
+      <c r="B23" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1166,8 +1172,8 @@
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>74</v>
+      <c r="B24" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1177,8 +1183,8 @@
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>76</v>
+      <c r="B25" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1188,8 +1194,8 @@
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>79</v>
+      <c r="B26" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1197,10 +1203,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1208,10 +1214,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1219,10 +1225,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1230,10 +1236,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1241,10 +1247,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1252,10 +1258,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1263,10 +1269,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1274,10 +1280,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1285,10 +1291,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1296,10 +1302,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -8080,314 +8086,328 @@
     <col customWidth="1" min="1" max="1" width="18.43"/>
     <col customWidth="1" min="2" max="2" width="17.43"/>
     <col customWidth="1" min="4" max="4" width="20.57"/>
-    <col customWidth="1" min="7" max="7" width="21.71"/>
+    <col customWidth="1" min="7" max="7" width="30.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>42569.41667824074</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
-        <v>75</v>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>77</v>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>78</v>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <v>42569.54167824074</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13" t="s">
-        <v>18</v>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
-        <v>91</v>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>92</v>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>94</v>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>78</v>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>78</v>
+      <c r="J3" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="K3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
         <v>42569.708344907405</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
-        <v>101</v>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>73</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>102</v>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>103</v>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>104</v>
+      <c r="I4" s="4" t="s">
+        <v>77</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>94</v>
+      <c r="J4" s="4" t="s">
+        <v>70</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="K4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <v>42569.75001157408</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
-        <v>107</v>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>81</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>108</v>
+      <c r="G5" s="4" t="s">
+        <v>82</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>109</v>
+      <c r="H5" s="4" t="s">
+        <v>83</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>110</v>
+      <c r="I5" s="4" t="s">
+        <v>84</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>103</v>
+      <c r="J5" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="K5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <v>42569.43056712963</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>93</v>
+      <c r="B6" s="4" t="s">
+        <v>90</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
-        <v>113</v>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>114</v>
+      <c r="H6" s="4" t="s">
+        <v>96</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>42569.433344907404</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>84</v>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9" t="s">
-        <v>113</v>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>115</v>
+      <c r="H7" s="4" t="s">
+        <v>105</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>42569.43681712963</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>69</v>
+      <c r="B8" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="16" t="s">
-        <v>113</v>
+      <c r="G8" s="15" t="s">
+        <v>94</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>123</v>
+      <c r="H8" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -8408,176 +8428,186 @@
       <c r="A9" s="3">
         <v>42569.464594907404</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>85</v>
+      <c r="B9" s="4" t="s">
+        <v>111</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="H9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>42569.47153935185</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>86</v>
+      <c r="B10" s="4" t="s">
+        <v>112</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
-        <v>113</v>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>130</v>
+      <c r="H10" s="4" t="s">
+        <v>132</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>42569.492372685185</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>89</v>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
-        <v>113</v>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>131</v>
+      <c r="H11" s="4" t="s">
+        <v>133</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>42569.520150462966</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>93</v>
+      <c r="B12" s="4" t="s">
+        <v>90</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9" t="s">
-        <v>132</v>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>134</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>133</v>
+      <c r="H12" s="4" t="s">
+        <v>135</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>42569.540983796294</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>69</v>
+      <c r="B13" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
-        <v>134</v>
+      <c r="G13" s="15" t="s">
+        <v>136</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>135</v>
+      <c r="H13" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -8605,32 +8635,36 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>42569.520844907405</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="16" t="s">
-        <v>136</v>
+      <c r="F15" s="15" t="s">
+        <v>138</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>137</v>
+      <c r="G15" s="15" t="s">
+        <v>139</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>138</v>
+      <c r="H15" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -8648,10 +8682,10 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>42569.56251157408</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="17"/>
@@ -8659,22 +8693,24 @@
         <v>20</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="16" t="s">
-        <v>139</v>
+      <c r="F16" s="15" t="s">
+        <v>141</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>62</v>
+      <c r="J16" s="15" t="s">
+        <v>140</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>138</v>
+      <c r="K16" s="4" t="s">
+        <v>61</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="17"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -8692,33 +8728,35 @@
       <c r="Z16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>42569.72917824074</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="16" t="s">
-        <v>58</v>
+      <c r="F17" s="15" t="s">
+        <v>62</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>141</v>
+      <c r="G17" s="15" t="s">
+        <v>143</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>142</v>
+      <c r="H17" s="15" t="s">
+        <v>144</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="17"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
@@ -8746,30 +8784,34 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>42569.489594907405</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>85</v>
+      <c r="B19" s="4" t="s">
+        <v>111</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9" t="s">
-        <v>124</v>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>126</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>143</v>
+      <c r="H19" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
@@ -21544,365 +21586,381 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>42570.645844907405</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>59</v>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>60</v>
+      <c r="H2" s="7" t="s">
+        <v>64</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6">
+        <v>42570.72917824074</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>62</v>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6">
+        <v>42570.75001157408</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>42570.72917824074</v>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>42570.770844907405</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>42570.79167824074</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>42570.802094907405</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>58</v>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>66</v>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>97</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>67</v>
+      <c r="G7" s="7" t="s">
+        <v>98</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>62</v>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>42570.81251157408</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>42570.75001157408</v>
+      <c r="B8" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>71</v>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>103</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>72</v>
+      <c r="H8" s="7" t="s">
+        <v>104</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>42570.770844907405</v>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>42570.82292824074</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="11" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>80</v>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>108</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>42570.79167824074</v>
+      <c r="H9" s="7" t="s">
+        <v>109</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>42570.802094907405</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>42570.81251157408</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>42570.82292824074</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -21918,173 +21976,181 @@
       <c r="A11" s="3">
         <v>42570.41667824074</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="s">
-        <v>75</v>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>116</v>
+      <c r="G11" s="4" t="s">
+        <v>118</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>117</v>
+      <c r="H11" s="4" t="s">
+        <v>119</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>42570.54167824074</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13" t="s">
-        <v>18</v>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
-        <v>91</v>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>68</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>92</v>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>118</v>
+      <c r="H12" s="4" t="s">
+        <v>120</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>117</v>
+      <c r="I12" s="4" t="s">
+        <v>119</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>117</v>
+      <c r="J12" s="4" t="s">
+        <v>119</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="K12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>42570.708344907405</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
-        <v>101</v>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>102</v>
+      <c r="G13" s="4" t="s">
+        <v>74</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>119</v>
+      <c r="H13" s="4" t="s">
+        <v>122</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>118</v>
+      <c r="K13" s="4" t="s">
+        <v>61</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>42570.54167824074</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9" t="s">
-        <v>107</v>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>81</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>108</v>
+      <c r="G14" s="4" t="s">
+        <v>82</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>121</v>
+      <c r="H14" s="4" t="s">
+        <v>124</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>119</v>
+      <c r="K14" s="4" t="s">
+        <v>61</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
@@ -22097,76 +22163,84 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <v>42570.489594907405</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>86</v>
+      <c r="B16" s="4" t="s">
+        <v>112</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9" t="s">
-        <v>124</v>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4" t="s">
+        <v>126</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>125</v>
+      <c r="H16" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <v>42570.489594907405</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>89</v>
+      <c r="B17" s="4" t="s">
+        <v>113</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9" t="s">
-        <v>124</v>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>126</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>126</v>
+      <c r="H17" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>42570.489594907405</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
+      <c r="B18" s="4" t="s">
+        <v>90</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9" t="s">
-        <v>124</v>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4" t="s">
+        <v>126</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>127</v>
+      <c r="H18" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2"/>
@@ -34955,158 +35029,164 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>42571.520833333336</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>112</v>
+      <c r="G2" s="7" t="s">
+        <v>147</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>112</v>
+      <c r="H2" s="7" t="s">
+        <v>148</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>42571.5625</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>147</v>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>149</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>149</v>
+      <c r="K3" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>42571.569444444445</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>152</v>
+      <c r="K4" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -35116,14 +35196,16 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="20">
         <v>42571.41667824074</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
@@ -35131,17 +35213,19 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="20">
@@ -35152,28 +35236,32 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>160</v>
+      <c r="J7" s="1" t="s">
+        <v>159</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>157</v>
+      <c r="K7" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>157</v>
+    </row>
+    <row r="8">
+      <c r="K8" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="K8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="20">
@@ -35187,15 +35275,17 @@
         <v>53</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="20">
@@ -35209,21 +35299,23 @@
         <v>22</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G10" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>166</v>
+      <c r="J10" s="1" t="s">
+        <v>165</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>163</v>
+      <c r="K10" s="1" t="s">
+        <v>61</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="20">
@@ -35237,21 +35329,23 @@
         <v>53</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>169</v>
+      <c r="K11" s="1" t="s">
+        <v>67</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
@@ -35278,15 +35372,17 @@
         <v>53</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="20">
@@ -35300,21 +35396,23 @@
         <v>24</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>176</v>
+      <c r="J14" s="1" t="s">
+        <v>175</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>173</v>
+      <c r="K14" s="1" t="s">
+        <v>61</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="20">
@@ -35328,21 +35426,23 @@
         <v>53</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>179</v>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
@@ -35361,24 +35461,26 @@
       <c r="A17" s="3">
         <v>42571.489594907405</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>89</v>
+      <c r="B17" s="4" t="s">
+        <v>113</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9" t="s">
-        <v>181</v>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>183</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>182</v>
+      <c r="H17" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
@@ -48140,37 +48242,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -48182,25 +48284,27 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="20"/>
@@ -48216,250 +48320,262 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>42572.645844907405</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>42572.65626157408</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>188</v>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>190</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>190</v>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>42572.66667824074</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
-        <v>69</v>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>191</v>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>193</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>192</v>
+      <c r="H6" s="7" t="s">
+        <v>194</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>42572.79167824074</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
+      <c r="B7" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>193</v>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>195</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>194</v>
+      <c r="H7" s="7" t="s">
+        <v>196</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>42572.802094907405</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>190</v>
+      <c r="H8" s="7" t="s">
+        <v>199</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>42572.82292824074</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>200</v>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
@@ -48475,44 +48591,46 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>42572.75001157408</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>185</v>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7" t="s">
+        <v>187</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>203</v>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>204</v>
+      <c r="H11" s="7" t="s">
+        <v>206</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="20">
@@ -48523,25 +48641,27 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>207</v>
+      <c r="J12" s="1" t="s">
+        <v>206</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>204</v>
+      <c r="K12" s="1" t="s">
+        <v>61</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
@@ -48557,27 +48677,29 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>42572.489594907405</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>93</v>
+      <c r="B14" s="7" t="s">
+        <v>90</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5" t="s">
-        <v>208</v>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7" t="s">
+        <v>210</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>209</v>
+      <c r="H14" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
@@ -61388,269 +61510,282 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>42573.47917824074</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>69</v>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>210</v>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>212</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>211</v>
+      <c r="H2" s="7" t="s">
+        <v>213</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>42573.47917824074</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>212</v>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>214</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>213</v>
+      <c r="K3" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>42573.66667824074</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>69</v>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>215</v>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>217</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>216</v>
+      <c r="H4" s="7" t="s">
+        <v>218</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>42573.677094907405</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
-        <v>69</v>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>217</v>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>219</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>218</v>
+      <c r="H5" s="7" t="s">
+        <v>220</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>42572.489594907405</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>85</v>
+      <c r="B7" s="7" t="s">
+        <v>111</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5" t="s">
-        <v>219</v>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7" t="s">
+        <v>221</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>220</v>
+      <c r="H7" s="7" t="s">
+        <v>222</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>42572.53126157408</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>85</v>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5" t="s">
-        <v>221</v>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>223</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>222</v>
+      <c r="H8" s="7" t="s">
+        <v>224</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/demo/demo_data.xlsx
+++ b/demo/demo_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="225">
   <si>
     <t>Тип</t>
   </si>
@@ -192,10 +192,28 @@
     <t>client1.ru</t>
   </si>
   <si>
+    <t>client2.ru</t>
+  </si>
+  <si>
+    <t>client3.ru</t>
+  </si>
+  <si>
+    <t>client4.ru</t>
+  </si>
+  <si>
+    <t>client5.ru</t>
+  </si>
+  <si>
+    <t>client6.ru</t>
+  </si>
+  <si>
     <t>запрос цены</t>
   </si>
   <si>
     <t>Здравствуйте! Мы бы хотели приобрести у вас шлифовальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
+  </si>
+  <si>
+    <t>client7.ru</t>
   </si>
   <si>
     <t>message_id_1</t>
@@ -204,10 +222,19 @@
     <t>normal</t>
   </si>
   <si>
+    <t>client8.ru</t>
+  </si>
+  <si>
+    <t>client9.ru</t>
+  </si>
+  <si>
     <t>RE: RE: цена на станцию выского давления</t>
   </si>
   <si>
     <t>Сергей, вы обещали выслать ТКП, но таки ничего не прислали. Вышлите пожалуйста сегодня.</t>
+  </si>
+  <si>
+    <t>client10.ru</t>
   </si>
   <si>
     <t>message_id_21</t>
@@ -222,22 +249,55 @@
     <t>conflict</t>
   </si>
   <si>
+    <t>check_phone</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>3333333</t>
+  </si>
+  <si>
+    <t>Сергей, мы ждем ТКП.</t>
+  </si>
+  <si>
+    <t>4444444</t>
+  </si>
+  <si>
+    <t>message_id_22</t>
+  </si>
+  <si>
     <t>RE: запрос цены</t>
   </si>
   <si>
     <t>Добрый день! Все модели есть в наличии. Сроки поставки от 1 до 3 дней. Расходные материалы надо уточнять. Все позиции указаны в приложении, со сроками доставки. С уважением, Алексей.</t>
   </si>
   <si>
+    <t>5555555</t>
+  </si>
+  <si>
     <t>message_id_2</t>
   </si>
   <si>
-    <t>Сергей, мы ждем ТКП.</t>
+    <t>6666666</t>
   </si>
   <si>
-    <t>message_id_22</t>
+    <t>Клиент просит прислать ТКП. Немного недоволен. Менеджер извиняется.</t>
+  </si>
+  <si>
+    <t>7777777</t>
+  </si>
+  <si>
+    <t>phone_id_21</t>
   </si>
   <si>
     <t>RE: RE: запрос цены</t>
+  </si>
+  <si>
+    <t>8888888</t>
   </si>
   <si>
     <t>Хорошо. Нам нужны модели №1, №2, №3 и расходники по списку. Пришлите счет.</t>
@@ -246,22 +306,19 @@
     <t>message_id_3</t>
   </si>
   <si>
-    <t>2222222</t>
-  </si>
-  <si>
     <t>message_id_1 message_id_2</t>
   </si>
   <si>
-    <t>Клиент просит прислать ТКП. Немного недоволен. Менеджер извиняется.</t>
+    <t>9999999</t>
   </si>
   <si>
-    <t>phone_id_21</t>
-  </si>
-  <si>
-    <t>client2.ru</t>
+    <t>1011010</t>
   </si>
   <si>
     <t>RE: RE: RE: запрос цены</t>
+  </si>
+  <si>
+    <t>ТКП</t>
   </si>
   <si>
     <t>Счет в приложении.</t>
@@ -273,25 +330,16 @@
     <t>message_id_1 message_id_2 message_id_3</t>
   </si>
   <si>
-    <t>client3.ru</t>
-  </si>
-  <si>
-    <t>ТКП</t>
-  </si>
-  <si>
     <t>Добрый вечер! ТКП в приложении.</t>
   </si>
   <si>
     <t>message_id_23</t>
   </si>
   <si>
-    <t>client4.ru</t>
+    <t>Разговор про наличие оборудования и цены.</t>
   </si>
   <si>
-    <t>7777777</t>
-  </si>
-  <si>
-    <t>client5.ru</t>
+    <t>phone_id_1</t>
   </si>
   <si>
     <t>Клиент сообщает об ошибке в спецификации. Недоволен. Указывает на ошибки и задержки.</t>
@@ -300,13 +348,7 @@
     <t>phone_id_22</t>
   </si>
   <si>
-    <t>Разговор про наличие оборудования и цены.</t>
-  </si>
-  <si>
-    <t>client6.ru</t>
-  </si>
-  <si>
-    <t>phone_id_1</t>
+    <t>phone_id_12</t>
   </si>
   <si>
     <t>RE: ТКП</t>
@@ -315,16 +357,7 @@
     <t>Исправленное ТКП в приложении.</t>
   </si>
   <si>
-    <t>client7.ru</t>
-  </si>
-  <si>
     <t>message_id_24</t>
-  </si>
-  <si>
-    <t>1111111</t>
-  </si>
-  <si>
-    <t>client8.ru</t>
   </si>
   <si>
     <t>Клиент просит счет.</t>
@@ -333,43 +366,10 @@
     <t>phone_id_23</t>
   </si>
   <si>
-    <t>phone_id_12</t>
-  </si>
-  <si>
-    <t>client9.ru</t>
-  </si>
-  <si>
-    <t>client10.ru</t>
-  </si>
-  <si>
     <t>Счет</t>
   </si>
   <si>
     <t>message_id_25</t>
-  </si>
-  <si>
-    <t>check_phone</t>
-  </si>
-  <si>
-    <t>3333333</t>
-  </si>
-  <si>
-    <t>4444444</t>
-  </si>
-  <si>
-    <t>5555555</t>
-  </si>
-  <si>
-    <t>6666666</t>
-  </si>
-  <si>
-    <t>8888888</t>
-  </si>
-  <si>
-    <t>9999999</t>
-  </si>
-  <si>
-    <t>1011010</t>
   </si>
   <si>
     <t>Здравствуйте! Мы бы хотели приобрести у вас полировальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
@@ -405,13 +405,13 @@
     <t>phone_id_25</t>
   </si>
   <si>
+    <t>phone_id_26</t>
+  </si>
+  <si>
     <t>Разговор про сервисное обслуживание оборудования и цены. Перенаправлен в отдел сервиса.</t>
   </si>
   <si>
     <t>phone_id_14</t>
-  </si>
-  <si>
-    <t>phone_id_26</t>
   </si>
   <si>
     <t>phone_id_15</t>
@@ -582,6 +582,9 @@
     <t>message_id_41</t>
   </si>
   <si>
+    <t>message_id_3 message_id_2 message_id_1</t>
+  </si>
+  <si>
     <t>Доставка</t>
   </si>
   <si>
@@ -621,9 +624,6 @@
     <t>message_id_44</t>
   </si>
   <si>
-    <t>message_id_42 message_id_43</t>
-  </si>
-  <si>
     <t>RE: RE:  FW: Доставка</t>
   </si>
   <si>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>message_id_45</t>
-  </si>
-  <si>
-    <t>message_id_42 message_id_43 message_id_44</t>
   </si>
   <si>
     <t>Сергей, водитель опять не приехал вовремя. Это происходит уже не в первый раз, ваш отдел логистики постоянно ошибается. Сделайте что-нибудь.</t>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>message_id_51</t>
+  </si>
+  <si>
+    <t>message_id_44 message_id_43 message_id_42</t>
   </si>
   <si>
     <t>Менеджер пытаеться исправить ситуацию и согласовать новое время доставки сегодня.</t>
@@ -731,14 +731,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -773,32 +773,32 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -810,7 +810,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1095,7 +1095,7 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="2"/>
@@ -1106,8 +1106,8 @@
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>80</v>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1117,8 +1117,8 @@
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>85</v>
+      <c r="B19" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1128,8 +1128,8 @@
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>89</v>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1139,8 +1139,8 @@
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>91</v>
+      <c r="B21" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1150,8 +1150,8 @@
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>95</v>
+      <c r="B22" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1161,8 +1161,8 @@
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>99</v>
+      <c r="B23" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1172,8 +1172,8 @@
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>102</v>
+      <c r="B24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1183,8 +1183,8 @@
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>106</v>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1194,8 +1194,8 @@
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>107</v>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>90</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -8125,288 +8125,288 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>42569.41667824074</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
+      <c r="G2" s="7" t="s">
+        <v>64</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
+      <c r="H2" s="7" t="s">
+        <v>66</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4" t="s">
-        <v>61</v>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>42569.54167824074</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7" t="s">
+        <v>84</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>69</v>
+      <c r="G3" s="7" t="s">
+        <v>85</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>70</v>
+      <c r="H3" s="7" t="s">
+        <v>87</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>60</v>
+      <c r="I3" s="7" t="s">
+        <v>66</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>60</v>
+      <c r="J3" s="7" t="s">
+        <v>66</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>61</v>
+      <c r="K3" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>42569.708344907405</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>73</v>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>92</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
+      <c r="G4" s="7" t="s">
+        <v>94</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>75</v>
+      <c r="H4" s="7" t="s">
+        <v>95</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>77</v>
+      <c r="I4" s="7" t="s">
+        <v>96</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>70</v>
+      <c r="J4" s="7" t="s">
+        <v>87</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>61</v>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>42569.75001157408</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>81</v>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>82</v>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>83</v>
+      <c r="H5" s="7" t="s">
+        <v>102</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>84</v>
+      <c r="I5" s="7" t="s">
+        <v>103</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>75</v>
+      <c r="J5" s="7" t="s">
+        <v>95</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>61</v>
+      <c r="K5" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>42569.43056712963</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
-        <v>94</v>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>106</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>96</v>
+      <c r="H6" s="7" t="s">
+        <v>107</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4" t="s">
-        <v>61</v>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>42569.433344907404</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>101</v>
+      <c r="B7" s="7" t="s">
+        <v>78</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
-        <v>94</v>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>106</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>105</v>
+      <c r="H7" s="7" t="s">
+        <v>110</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4" t="s">
-        <v>61</v>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="14">
         <v>42569.43681712963</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>76</v>
+      <c r="B8" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="15" t="s">
-        <v>94</v>
+      <c r="G8" s="16" t="s">
+        <v>106</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="4" t="s">
-        <v>61</v>
+      <c r="K8" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -8425,188 +8425,188 @@
       <c r="Z8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>42569.464594907404</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>111</v>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
-        <v>61</v>
+      <c r="H9" s="7" t="s">
+        <v>131</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>42569.47153935185</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>112</v>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>94</v>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
-        <v>61</v>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>42569.492372685185</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>113</v>
+      <c r="B11" s="7" t="s">
+        <v>86</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>94</v>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>106</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4" t="s">
-        <v>61</v>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>42569.520150462966</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
-        <v>61</v>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="14">
         <v>42569.540983796294</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>76</v>
+      <c r="B13" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="4" t="s">
-        <v>61</v>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -8635,35 +8635,35 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="4" t="s">
-        <v>61</v>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14">
         <v>42569.520844907405</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>140</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="4" t="s">
-        <v>61</v>
+      <c r="K15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -8685,7 +8685,7 @@
       <c r="A16" s="14">
         <v>42569.56251157408</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="17"/>
@@ -8693,23 +8693,23 @@
         <v>20</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>66</v>
+      <c r="H16" s="16" t="s">
+        <v>75</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>61</v>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -8731,31 +8731,31 @@
       <c r="A17" s="14">
         <v>42569.72917824074</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="15" t="s">
-        <v>62</v>
+      <c r="F17" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>65</v>
+      <c r="I17" s="16" t="s">
+        <v>74</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>66</v>
+      <c r="J17" s="16" t="s">
+        <v>75</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>61</v>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -8784,33 +8784,33 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="4" t="s">
-        <v>61</v>
+      <c r="K18" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>42569.489594907405</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>111</v>
+      <c r="B19" s="7" t="s">
+        <v>80</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="4" t="s">
-        <v>61</v>
+      <c r="K19" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -21620,34 +21620,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>42570.645844907405</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
+      <c r="F2" s="4" t="s">
+        <v>70</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>63</v>
+      <c r="G2" s="4" t="s">
+        <v>71</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>64</v>
+      <c r="H2" s="4" t="s">
+        <v>73</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>65</v>
+      <c r="I2" s="4" t="s">
+        <v>74</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>66</v>
+      <c r="J2" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>67</v>
+      <c r="K2" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -21666,34 +21666,34 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>42570.72917824074</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>62</v>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>71</v>
+      <c r="G3" s="4" t="s">
+        <v>81</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>72</v>
+      <c r="H3" s="4" t="s">
+        <v>83</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>65</v>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>66</v>
+      <c r="J3" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>61</v>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -21712,28 +21712,28 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>42570.75001157408</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>76</v>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>78</v>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>89</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>79</v>
+      <c r="H4" s="4" t="s">
+        <v>91</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -21752,10 +21752,10 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>42570.770844907405</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="9"/>
@@ -21763,19 +21763,19 @@
         <v>20</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>86</v>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
+      <c r="G5" s="4" t="s">
+        <v>104</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>88</v>
+      <c r="H5" s="4" t="s">
+        <v>105</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>61</v>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -21794,28 +21794,28 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>42570.79167824074</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>76</v>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>92</v>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>108</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>93</v>
+      <c r="H6" s="4" t="s">
+        <v>109</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>67</v>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -21834,10 +21834,10 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>42570.802094907405</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="9"/>
@@ -21845,21 +21845,21 @@
         <v>20</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
+      <c r="F7" s="4" t="s">
+        <v>111</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
+      <c r="G7" s="4" t="s">
+        <v>112</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>100</v>
+      <c r="H7" s="4" t="s">
+        <v>113</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>88</v>
+      <c r="I7" s="4" t="s">
+        <v>105</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>61</v>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -21878,28 +21878,28 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>42570.81251157408</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>76</v>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>114</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>104</v>
+      <c r="H8" s="4" t="s">
+        <v>115</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="s">
-        <v>61</v>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -21918,10 +21918,10 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>42570.82292824074</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="9"/>
@@ -21929,19 +21929,19 @@
         <v>20</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="7" t="s">
-        <v>108</v>
+      <c r="F9" s="4" t="s">
+        <v>116</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>82</v>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>109</v>
+      <c r="H9" s="4" t="s">
+        <v>117</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
-        <v>61</v>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -21960,7 +21960,7 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -21973,184 +21973,184 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>42570.41667824074</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
-        <v>58</v>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4" t="s">
-        <v>61</v>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>42570.54167824074</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>68</v>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>84</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>69</v>
+      <c r="G12" s="7" t="s">
+        <v>85</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>61</v>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>42570.708344907405</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>92</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>74</v>
+      <c r="G13" s="7" t="s">
+        <v>94</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>61</v>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>42570.54167824074</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4" t="s">
-        <v>81</v>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7" t="s">
+        <v>99</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>82</v>
+      <c r="G14" s="7" t="s">
+        <v>101</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>61</v>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
@@ -22163,83 +22163,83 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="4" t="s">
-        <v>61</v>
+      <c r="K15" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>42570.489594907405</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>112</v>
+      <c r="B16" s="7" t="s">
+        <v>82</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>127</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="4" t="s">
-        <v>61</v>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>42570.489594907405</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>113</v>
+      <c r="B17" s="7" t="s">
+        <v>86</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>128</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="4" t="s">
-        <v>61</v>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>42570.489594907405</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>131</v>
+      <c r="H18" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="4" t="s">
-        <v>61</v>
+      <c r="K18" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -35063,10 +35063,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>42571.520833333336</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="9"/>
@@ -35074,23 +35074,23 @@
         <v>20</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>109</v>
+      <c r="I2" s="4" t="s">
+        <v>117</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>109</v>
+      <c r="J2" s="4" t="s">
+        <v>117</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>61</v>
+      <c r="K2" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -35109,24 +35109,24 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>42571.5625</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>151</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -35135,15 +35135,15 @@
       <c r="J3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>61</v>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>42571.569444444445</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="9"/>
@@ -35151,23 +35151,23 @@
         <v>20</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>61</v>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -35186,7 +35186,7 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -35196,8 +35196,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="7" t="s">
-        <v>61</v>
+      <c r="K5" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -35223,8 +35223,8 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="7" t="s">
-        <v>61</v>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -35254,13 +35254,13 @@
       <c r="J7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>61</v>
+      <c r="K7" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
-      <c r="K8" s="7" t="s">
-        <v>61</v>
+      <c r="K8" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -35283,8 +35283,8 @@
       <c r="H9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>67</v>
+      <c r="K9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -35314,7 +35314,7 @@
         <v>165</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -35344,7 +35344,7 @@
         <v>168</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -35381,7 +35381,7 @@
         <v>175</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -35411,7 +35411,7 @@
         <v>175</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -35441,7 +35441,7 @@
         <v>178</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -35458,28 +35458,28 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>42571.489594907405</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>113</v>
+      <c r="B17" s="7" t="s">
+        <v>86</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>184</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -48288,7 +48288,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>185</v>
@@ -48297,13 +48297,13 @@
         <v>186</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -48320,30 +48320,30 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>42572.645844907405</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
+      <c r="H4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -48362,32 +48362,32 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>42572.65626157408</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>61</v>
+      <c r="K5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -48406,28 +48406,28 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>42572.66667824074</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
-        <v>76</v>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>67</v>
+      <c r="H6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -48446,28 +48446,28 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>42572.79167824074</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>76</v>
+      <c r="B7" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
+      <c r="H7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -48486,7 +48486,7 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>42572.802094907405</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -48497,23 +48497,21 @@
         <v>20</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>192</v>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>193</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>61</v>
+      <c r="K8" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -48532,10 +48530,10 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>42572.82292824074</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="9"/>
@@ -48543,23 +48541,21 @@
         <v>49</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>204</v>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>200</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>67</v>
+      <c r="K9" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -48591,30 +48587,30 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>42572.75001157408</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="7" t="s">
-        <v>187</v>
+      <c r="F11" s="4" t="s">
+        <v>188</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
+      <c r="K11" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -48645,22 +48641,22 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -48677,28 +48673,28 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>42572.489594907405</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -61544,59 +61540,59 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>42573.47917824074</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
-        <v>76</v>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>42573.47917824074</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>204</v>
+      <c r="J3" s="4" t="s">
+        <v>200</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>67</v>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -61615,28 +61611,28 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>42573.66667824074</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="7" t="s">
-        <v>76</v>
+      <c r="D4" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>61</v>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -61655,28 +61651,28 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>42573.677094907405</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
-        <v>76</v>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>61</v>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -61695,16 +61691,16 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="22"/>
       <c r="C6" s="9"/>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="9"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -61723,28 +61719,28 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>42572.489594907405</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>111</v>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -61763,28 +61759,28 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>42572.53126157408</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
-        <v>111</v>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>224</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/demo/demo_data.xlsx
+++ b/demo/demo_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="222">
   <si>
     <t>Тип</t>
   </si>
@@ -36,7 +36,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>111-11-11</t>
+    <t>1111111</t>
   </si>
   <si>
     <t>client1@client1.ru</t>
@@ -75,55 +75,55 @@
     <t>категория</t>
   </si>
   <si>
-    <t>222-22-22</t>
+    <t>2222222</t>
   </si>
   <si>
     <t>client2@client2.ru</t>
   </si>
   <si>
-    <t>333-33-33</t>
+    <t>3333333</t>
   </si>
   <si>
     <t>client3@client3.ru</t>
   </si>
   <si>
-    <t>444-44-44</t>
+    <t>4444444</t>
   </si>
   <si>
     <t>client4@client4.ru</t>
   </si>
   <si>
-    <t>555-55-55</t>
+    <t>5555555</t>
   </si>
   <si>
     <t>client5@client5.ru</t>
   </si>
   <si>
-    <t>666-66-66</t>
+    <t>6666666</t>
   </si>
   <si>
     <t>client6@client6.ru</t>
   </si>
   <si>
-    <t>777-77-77</t>
+    <t>7777777</t>
   </si>
   <si>
     <t>client7@client7.ru</t>
   </si>
   <si>
-    <t>888-88-88</t>
+    <t>8888888</t>
   </si>
   <si>
     <t>client8@client8.ru</t>
   </si>
   <si>
-    <t>999-99-99</t>
+    <t>9999999</t>
   </si>
   <si>
     <t>client9@client9.ru</t>
   </si>
   <si>
-    <t>101-10-10</t>
+    <t>1011010</t>
   </si>
   <si>
     <t>client10@client10.ru</t>
@@ -165,6 +165,9 @@
     <t>555</t>
   </si>
   <si>
+    <t>Клиент 1</t>
+  </si>
+  <si>
     <t>logistica@company.ru</t>
   </si>
   <si>
@@ -174,13 +177,22 @@
     <t>(отдел достаки)</t>
   </si>
   <si>
+    <t>запрос цены</t>
+  </si>
+  <si>
     <t>444</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Мы бы хотели приобрести у вас шлифовальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
   </si>
   <si>
     <t>service@company.ru</t>
   </si>
   <si>
     <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>message_id_1</t>
   </si>
   <si>
     <t>(сервисный отдел)</t>
@@ -190,6 +202,9 @@
   </si>
   <si>
     <t>client1.ru</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>client2.ru</t>
@@ -207,34 +222,13 @@
     <t>client6.ru</t>
   </si>
   <si>
-    <t>запрос цены</t>
-  </si>
-  <si>
-    <t>Здравствуйте! Мы бы хотели приобрести у вас шлифовальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
+    <t>RE: RE: цена на станцию выского давления</t>
   </si>
   <si>
     <t>client7.ru</t>
   </si>
   <si>
-    <t>message_id_1</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>client8.ru</t>
-  </si>
-  <si>
-    <t>client9.ru</t>
-  </si>
-  <si>
-    <t>RE: RE: цена на станцию выского давления</t>
-  </si>
-  <si>
     <t>Сергей, вы обещали выслать ТКП, но таки ничего не прислали. Вышлите пожалуйста сегодня.</t>
-  </si>
-  <si>
-    <t>client10.ru</t>
   </si>
   <si>
     <t>message_id_21</t>
@@ -246,58 +240,37 @@
     <t>message_id_12</t>
   </si>
   <si>
+    <t>client8.ru</t>
+  </si>
+  <si>
     <t>conflict</t>
+  </si>
+  <si>
+    <t>client9.ru</t>
+  </si>
+  <si>
+    <t>RE: запрос цены</t>
+  </si>
+  <si>
+    <t>client10.ru</t>
+  </si>
+  <si>
+    <t>Добрый день! Все модели есть в наличии. Сроки поставки от 1 до 3 дней. Расходные материалы надо уточнять. Все позиции указаны в приложении, со сроками доставки. С уважением, Алексей.</t>
+  </si>
+  <si>
+    <t>message_id_2</t>
   </si>
   <si>
     <t>check_phone</t>
   </si>
   <si>
-    <t>1111111</t>
-  </si>
-  <si>
-    <t>2222222</t>
-  </si>
-  <si>
-    <t>3333333</t>
-  </si>
-  <si>
     <t>Сергей, мы ждем ТКП.</t>
-  </si>
-  <si>
-    <t>4444444</t>
   </si>
   <si>
     <t>message_id_22</t>
   </si>
   <si>
-    <t>RE: запрос цены</t>
-  </si>
-  <si>
-    <t>Добрый день! Все модели есть в наличии. Сроки поставки от 1 до 3 дней. Расходные материалы надо уточнять. Все позиции указаны в приложении, со сроками доставки. С уважением, Алексей.</t>
-  </si>
-  <si>
-    <t>5555555</t>
-  </si>
-  <si>
-    <t>message_id_2</t>
-  </si>
-  <si>
-    <t>6666666</t>
-  </si>
-  <si>
-    <t>Клиент просит прислать ТКП. Немного недоволен. Менеджер извиняется.</t>
-  </si>
-  <si>
-    <t>7777777</t>
-  </si>
-  <si>
-    <t>phone_id_21</t>
-  </si>
-  <si>
     <t>RE: RE: запрос цены</t>
-  </si>
-  <si>
-    <t>8888888</t>
   </si>
   <si>
     <t>Хорошо. Нам нужны модели №1, №2, №3 и расходники по списку. Пришлите счет.</t>
@@ -309,16 +282,13 @@
     <t>message_id_1 message_id_2</t>
   </si>
   <si>
-    <t>9999999</t>
+    <t>Клиент просит прислать ТКП. Немного недоволен. Менеджер извиняется.</t>
   </si>
   <si>
-    <t>1011010</t>
+    <t>phone_id_21</t>
   </si>
   <si>
     <t>RE: RE: RE: запрос цены</t>
-  </si>
-  <si>
-    <t>ТКП</t>
   </si>
   <si>
     <t>Счет в приложении.</t>
@@ -330,10 +300,16 @@
     <t>message_id_1 message_id_2 message_id_3</t>
   </si>
   <si>
+    <t>ТКП</t>
+  </si>
+  <si>
     <t>Добрый вечер! ТКП в приложении.</t>
   </si>
   <si>
     <t>message_id_23</t>
+  </si>
+  <si>
+    <t>Клиент 7</t>
   </si>
   <si>
     <t>Разговор про наличие оборудования и цены.</t>
@@ -372,16 +348,31 @@
     <t>message_id_25</t>
   </si>
   <si>
+    <t>Клиент 2</t>
+  </si>
+  <si>
+    <t>phone_id_13</t>
+  </si>
+  <si>
     <t>Здравствуйте! Мы бы хотели приобрести у вас полировальные машины и расходники к ним. Интерсуют модели №1, №2, №3 их наличие, сроки доставки и цены. Ждем ответа. Спасибо!</t>
   </si>
   <si>
     <t>message_id_26</t>
   </si>
   <si>
+    <t>Клиент 3</t>
+  </si>
+  <si>
     <t>message_id_27</t>
   </si>
   <si>
-    <t>phone_id_13</t>
+    <t>Разговор про сервисное обслуживание оборудования и цены. Перенаправлен в отдел сервиса.</t>
+  </si>
+  <si>
+    <t>phone_id_14</t>
+  </si>
+  <si>
+    <t>Клиент 4</t>
   </si>
   <si>
     <t>message_id_28</t>
@@ -390,31 +381,16 @@
     <t>message_id_26 message_id_27</t>
   </si>
   <si>
+    <t>phone_id_15</t>
+  </si>
+  <si>
+    <t>Клиент 5</t>
+  </si>
+  <si>
     <t>message_id_29</t>
   </si>
   <si>
     <t>message_id_26 message_id_27 message_id_28</t>
-  </si>
-  <si>
-    <t>Запрос на сервисное обслуживание оборудования. Согласованы работы и оплата.</t>
-  </si>
-  <si>
-    <t>phone_id_24</t>
-  </si>
-  <si>
-    <t>phone_id_25</t>
-  </si>
-  <si>
-    <t>phone_id_26</t>
-  </si>
-  <si>
-    <t>Разговор про сервисное обслуживание оборудования и цены. Перенаправлен в отдел сервиса.</t>
-  </si>
-  <si>
-    <t>phone_id_14</t>
-  </si>
-  <si>
-    <t>phone_id_15</t>
   </si>
   <si>
     <t>phone_id_16</t>
@@ -426,10 +402,22 @@
     <t>phone_id_17</t>
   </si>
   <si>
+    <t>Запрос на сервисное обслуживание оборудования. Согласованы работы и оплата.</t>
+  </si>
+  <si>
+    <t>phone_id_24</t>
+  </si>
+  <si>
     <t>Уточнение цены и количества.</t>
   </si>
   <si>
     <t>phone_id_18</t>
+  </si>
+  <si>
+    <t>phone_id_25</t>
+  </si>
+  <si>
+    <t>phone_id_26</t>
   </si>
   <si>
     <t>цена на станцию выского давления</t>
@@ -624,6 +612,9 @@
     <t>message_id_44</t>
   </si>
   <si>
+    <t>message_id_43 message_id_42</t>
+  </si>
+  <si>
     <t>RE: RE:  FW: Доставка</t>
   </si>
   <si>
@@ -631,6 +622,9 @@
   </si>
   <si>
     <t>message_id_45</t>
+  </si>
+  <si>
+    <t>message_id_44 message_id_43 message_id_42</t>
   </si>
   <si>
     <t>Сергей, водитель опять не приехал вовремя. Это происходит уже не в первый раз, ваш отдел логистики постоянно ошибается. Сделайте что-нибудь.</t>
@@ -669,9 +663,6 @@
   </si>
   <si>
     <t>message_id_51</t>
-  </si>
-  <si>
-    <t>message_id_44 message_id_43 message_id_42</t>
   </si>
   <si>
     <t>Менеджер пытаеться исправить ситуацию и согласовать новое время доставки сегодня.</t>
@@ -731,14 +722,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -776,29 +767,29 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -810,7 +801,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1065,13 +1056,13 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -1079,24 +1070,24 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1104,10 +1095,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1115,10 +1106,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1126,10 +1117,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1137,10 +1128,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1148,10 +1139,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1159,10 +1150,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1170,10 +1161,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1181,10 +1172,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1192,10 +1183,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1203,10 +1194,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1214,10 +1205,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1225,10 +1216,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1236,10 +1227,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1247,10 +1238,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1258,10 +1249,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1269,10 +1260,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1280,10 +1271,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1291,10 +1282,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1302,10 +1293,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -8086,7 +8077,7 @@
     <col customWidth="1" min="1" max="1" width="18.43"/>
     <col customWidth="1" min="2" max="2" width="17.43"/>
     <col customWidth="1" min="4" max="4" width="20.57"/>
-    <col customWidth="1" min="7" max="7" width="30.29"/>
+    <col customWidth="1" min="7" max="7" width="48.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8125,288 +8116,316 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>42569.41667824074</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>42569.54167824074</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>42569.708344907405</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>42569.708344907405</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="J4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>42569.75001157408</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>42569.75001157408</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>42569.43056712963</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>42569.433344907404</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>42569.43056712963</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>42569.433344907404</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="14">
         <v>42569.43681712963</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>121</v>
+      <c r="G8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="7" t="s">
-        <v>67</v>
+      <c r="K8" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -8425,188 +8444,208 @@
       <c r="Z8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>42569.464594907404</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>42569.47153935185</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>42569.492372685185</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>42569.520150462966</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="14">
         <v>42569.540983796294</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>137</v>
+      <c r="G13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
+      <c r="K13" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -8635,35 +8674,39 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="7" t="s">
-        <v>67</v>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14">
         <v>42569.520844907405</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>140</v>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="7" t="s">
-        <v>67</v>
+      <c r="K15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -8685,31 +8728,35 @@
       <c r="A16" s="14">
         <v>42569.56251157408</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
+      <c r="E16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -8731,31 +8778,35 @@
       <c r="A17" s="14">
         <v>42569.72917824074</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>67</v>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -8784,33 +8835,37 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="7" t="s">
-        <v>67</v>
+      <c r="K18" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>42569.489594907405</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>145</v>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="7" t="s">
-        <v>67</v>
+      <c r="K19" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -21581,7 +21636,7 @@
     <col customWidth="1" min="1" max="1" width="18.43"/>
     <col customWidth="1" min="2" max="2" width="17.43"/>
     <col customWidth="1" min="4" max="4" width="20.57"/>
-    <col customWidth="1" min="7" max="7" width="21.71"/>
+    <col customWidth="1" min="7" max="7" width="39.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21620,347 +21675,347 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>42570.645844907405</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>42570.72917824074</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>42570.75001157408</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>42570.75001157408</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>42570.770844907405</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>42570.79167824074</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>42570.79167824074</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="H6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>42570.802094907405</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="I7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>42570.81251157408</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>42570.82292824074</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -21973,184 +22028,184 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>42570.41667824074</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>42570.54167824074</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>42570.708344907405</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5">
+      <c r="I13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
         <v>42570.54167824074</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>42570.708344907405</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>42570.54167824074</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
@@ -22163,83 +22218,83 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="7" t="s">
-        <v>67</v>
+      <c r="K15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>42570.489594907405</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>127</v>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
+      <c r="K16" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>42570.489594907405</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4" t="s">
         <v>128</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="7" t="s">
-        <v>67</v>
+      <c r="K17" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>42570.489594907405</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>129</v>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="7" t="s">
-        <v>67</v>
+      <c r="K18" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -35023,7 +35078,7 @@
     <col customWidth="1" min="1" max="1" width="18.43"/>
     <col customWidth="1" min="2" max="2" width="17.43"/>
     <col customWidth="1" min="4" max="4" width="20.57"/>
-    <col customWidth="1" min="7" max="7" width="21.71"/>
+    <col customWidth="1" min="7" max="7" width="37.29"/>
     <col customWidth="1" min="8" max="8" width="15.14"/>
   </cols>
   <sheetData>
@@ -35063,130 +35118,130 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>42571.520833333336</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>42571.5625</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>42571.5625</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="J3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>42571.569444444445</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>42571.569444444445</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="I4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -35196,8 +35251,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
+      <c r="K5" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -35213,18 +35268,18 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4" t="s">
-        <v>67</v>
+      <c r="K6" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -35240,27 +35295,27 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>67</v>
+        <v>155</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
-      <c r="K8" s="4" t="s">
-        <v>67</v>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -35272,19 +35327,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>76</v>
+        <v>161</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -35292,29 +35347,29 @@
         <v>42571.50001157408</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -35326,25 +35381,25 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -35369,19 +35424,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -35389,29 +35444,29 @@
         <v>42571.770844907405</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -35423,25 +35478,25 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -35458,28 +35513,28 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>42571.489594907405</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>184</v>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -48288,22 +48343,22 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -48320,258 +48375,264 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>42572.645844907405</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>42572.65626157408</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>42572.66667824074</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>42572.65626157408</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>42572.79167824074</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>42572.66667824074</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>42572.79167824074</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>42572.802094907405</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>42572.82292824074</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>42572.82292824074</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="J9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
@@ -48587,46 +48648,46 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>42572.75001157408</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="20">
@@ -48641,22 +48702,22 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -48673,28 +48734,28 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>42572.489594907405</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>210</v>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -61540,247 +61601,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>42573.47917824074</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="8"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>42573.47917824074</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>42573.66667824074</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>42573.677094907405</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>42573.66667824074</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>42572.489594907405</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>42573.677094907405</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>42572.53126157408</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>42572.489594907405</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>42572.53126157408</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
